--- a/SmokerKiller/images/luckylucky.xlsx
+++ b/SmokerKiller/images/luckylucky.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/home/git/SmokerKiller1.0/SmokerKiller/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFF1919-AA1F-464A-A6C5-E89A17254DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9327B08F-D5B9-2F48-883B-8F246EF19B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2660" yWindow="1560" windowWidth="28260" windowHeight="17320" xr2:uid="{38E627A5-059C-AC4C-BF59-3EE903FECE2A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>D111111111</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +57,12 @@
   <si>
     <t>2022-12-23</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-01-06</t>
+  </si>
+  <si>
+    <t>A999999999</t>
   </si>
 </sst>
 </file>
@@ -429,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC558DDF-A931-4B4F-80B7-91B99F3F8705}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -497,6 +503,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
